--- a/console series stuff.xlsx
+++ b/console series stuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steph\Documents\I want to make a game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A057B6A6-2D9E-41F8-BABA-160D1741B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567FC973-C3D6-4205-A398-E3EFF9164507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D40365B7-078E-4227-8C18-8BDDE7EEC151}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{D40365B7-078E-4227-8C18-8BDDE7EEC151}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Lists" sheetId="1" r:id="rId1"/>
@@ -2397,7 +2397,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{574CD67C-933B-4BA6-82DA-D67120AEDE16}"/>
   </cellStyles>
-  <dxfs count="304">
+  <dxfs count="626">
     <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
@@ -3460,10 +3460,40 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -3474,12 +3504,2102 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
       <fill>
@@ -4485,6 +6605,1106 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00FFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CD424"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFF33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1F51FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF62C2F4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5765,7 +8985,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7390,278 +10610,278 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:B46">
-    <cfRule type="cellIs" dxfId="303" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="131" operator="equal">
       <formula>"LMGTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="89" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="88" operator="equal">
       <formula>"LMGTP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E46">
-    <cfRule type="cellIs" dxfId="300" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="80" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="133" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="129" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="128" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="127" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="126" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="132" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="87" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="86" operator="equal">
       <formula>"Honda HRX-06"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="85" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="84" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="83" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="82" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="81" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="134" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="135" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="136" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="137" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="138" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="139" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="140" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="141" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="142" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="143" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H54">
-    <cfRule type="cellIs" dxfId="276" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="113" operator="equal">
       <formula>"GTD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="112" operator="equal">
       <formula>"GTD PRO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="33" operator="equal">
       <formula>"GTP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="34" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K54">
-    <cfRule type="cellIs" dxfId="272" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="53" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="54" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="55" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="56" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="57" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="58" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="59" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="60" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="61" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="62" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="63" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="64" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="65" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="66" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="67" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="68" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="69" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="70" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="71" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="72" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="73" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="74" operator="equal">
       <formula>"Lamborghini Huracan GT3 Evo 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="75" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="76" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="77" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="78" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="79" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="44" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="43" operator="equal">
       <formula>"Acura ARX-06"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="45" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="46" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="47" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="48" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="49" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="50" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="51" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="52" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N46">
-    <cfRule type="cellIs" dxfId="235" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="95" operator="equal">
       <formula>"LMGTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="4" operator="equal">
       <formula>"LMP3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="2" operator="equal">
       <formula>"LMP2-PA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q46">
-    <cfRule type="cellIs" dxfId="231" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="22" operator="equal">
       <formula>"Duqueine D-08"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="21" operator="equal">
       <formula>"ADESS-03 EVO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="8" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="7" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="6" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="5" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="25" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="32" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="31" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="30" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="29" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="28" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="27" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="26" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="24" operator="equal">
       <formula>"Ligier JS P320"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="23" operator="equal">
       <formula>"Ginetta G61-LT-P3"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7673,8 +10893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4546205-842E-4538-BB27-E0B93451870A}">
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9185,7 +12405,7 @@
         <v>153</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>71</v>
@@ -9232,7 +12452,7 @@
         <v>154</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>71</v>
@@ -9291,7 +12511,7 @@
         <v>153</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>69</v>
@@ -9846,7 +13066,7 @@
         <v>235</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>228</v>
@@ -10001,7 +13221,7 @@
         <v>217</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -10090,356 +13310,356 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B5:B42">
-    <cfRule type="cellIs" dxfId="215" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="177" operator="equal">
       <formula>"LMGTP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="186" operator="equal">
       <formula>"LMGT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="178" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E41">
-    <cfRule type="cellIs" dxfId="212" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="110" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="108" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="107" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="106" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="105" operator="equal">
-      <formula>"Lamborghini Huracán GT3 Evo 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="105" operator="equal">
+      <formula>"Lamborghini Huracan GT3 Evo 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="104" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="103" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="74" operator="equal">
       <formula>"Acura ARX-06"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="102" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="101" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="100" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="109" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="99" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="98" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E42">
-    <cfRule type="cellIs" dxfId="198" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="89" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="90" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="91" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="92" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="93" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="95" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="96" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="97" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="81" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="75" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="76" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="77" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="78" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="79" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="80" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="94" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="82" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="83" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="84" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="85" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="86" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="87" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="88" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="175" operator="equal">
       <formula>"Honda HRX-06"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H55">
-    <cfRule type="cellIs" dxfId="174" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="130" operator="equal">
       <formula>"GTP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="181" operator="equal">
       <formula>"GTD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="180" operator="equal">
       <formula>"GTD PRO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H56">
-    <cfRule type="cellIs" dxfId="171" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="56" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="170" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="61" operator="equal">
       <formula>"LMGT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="55" operator="equal">
       <formula>"LMGTP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K55">
-    <cfRule type="cellIs" dxfId="168" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="162" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="167" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="168" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="166" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="165" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="164" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
-      <formula>"Lamborghini Huracán GT3 Evo 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="163" operator="equal">
+      <formula>"Lamborghini Huracan GT3 Evo 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="161" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="160" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="159" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="158" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="157" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="156" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="132" operator="equal">
       <formula>"Acura ARX-06"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K56">
-    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="52" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="60" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="59" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="58" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="47" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="48" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="49" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="50" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="51" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="57" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="68" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="73" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="72" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="71" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="54" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="69" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="67" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="66" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="65" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="64" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="63" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="62" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="70" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="cellIs" dxfId="131" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="53" operator="equal">
       <formula>"Honda HRX-06"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N47">
-    <cfRule type="cellIs" dxfId="130" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="113" operator="equal">
       <formula>"LMP3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="111" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="112" operator="equal">
       <formula>"LMP2-PA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="179" operator="equal">
       <formula>"LMGT3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q47">
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="3" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="4" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="5" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="39" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="46" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="45" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="44" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="43" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="42" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="41" operator="equal">
       <formula>"Lamborghini Huracán GT3 Evo 2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="2" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="40" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="38" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="37" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="36" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="34" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="35" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="9" operator="equal">
       <formula>"Ligier JS P320"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="8" operator="equal">
       <formula>"Ginetta G61-LT-P3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="7" operator="equal">
       <formula>"Duqueine D-08"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="6" operator="equal">
       <formula>"ADESS-03 EVO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10451,8 +13671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAE2FA9-32FD-4176-A98B-7979675EB308}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="Q82" sqref="Q82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11525,7 +14745,7 @@
         <v>153</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G31" s="212">
         <f t="shared" si="1"/>
@@ -11563,7 +14783,7 @@
         <v>154</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G32" s="212">
         <f t="shared" si="1"/>
@@ -13065,7 +16285,7 @@
         <v>153</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G75" s="212">
         <f t="shared" si="3"/>
@@ -13559,7 +16779,7 @@
         <v>235</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G88" s="212">
         <f t="shared" si="6"/>
@@ -13787,7 +17007,7 @@
         <v>217</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G94" s="212">
         <f t="shared" si="6"/>
@@ -13942,334 +17162,334 @@
     <mergeCell ref="B45:E45"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:B42">
-    <cfRule type="cellIs" dxfId="105" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="161" operator="equal">
       <formula>"LMGT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="160" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="159" operator="equal">
       <formula>"LMGTP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:B97">
-    <cfRule type="cellIs" dxfId="102" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="71" operator="equal">
       <formula>"GTD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="70" operator="equal">
       <formula>"GTD PRO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="55" operator="equal">
       <formula>"GTP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="38" operator="equal">
       <formula>"LMP2"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:E98">
-    <cfRule type="cellIs" dxfId="98" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="15" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="7" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="8" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="9" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="10" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="11" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="12" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="13" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="14" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="29" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="22" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="23" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="24" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="25" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="26" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="27" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="28" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="30" operator="equal">
       <formula>"Honda HRX-06"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E41">
-    <cfRule type="cellIs" dxfId="74" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="147" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="121" operator="equal">
       <formula>"Acura ARX-06"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="145" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="146" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="148" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="149" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="150" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="151" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="152" operator="equal">
-      <formula>"Lamborghini Huracán GT3 Evo 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="152" operator="equal">
+      <formula>"Lamborghini Huracan GT3 Evo 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="153" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="154" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="155" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="156" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E42">
-    <cfRule type="cellIs" dxfId="60" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="136" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="137" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="138" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="139" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="125" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="140" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="141" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="142" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="143" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="134" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="144" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="122" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="123" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="124" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="133" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="126" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="127" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="128" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="129" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="130" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="131" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="132" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="135" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="37" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="158" operator="equal">
       <formula>"Honda HRX-06"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E97">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="34" operator="equal">
       <formula>"Cadillac V-Series.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="59" operator="equal">
       <formula>"BMW M4 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="58" operator="equal">
       <formula>"Aston Martin Vantage AMR GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="56" operator="equal">
       <formula>"Acura ARX-06"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="54" operator="equal">
       <formula>"Porsche 911 RSR-24"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="68" operator="equal">
       <formula>"Nissan GT-R Nismo GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
       <formula>"Alpine A424"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"Aston Martin Valkyrie LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="33" operator="equal">
       <formula>"BMW M Hybrid V8"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="35" operator="equal">
       <formula>"Ferrari 499P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="36" operator="equal">
       <formula>"Glickenhaus SCG 007 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="37" operator="equal">
       <formula>"Isotta Fraschini Tipo 6 LMH-C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="39" operator="equal">
       <formula>"Lamborghini SC63"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="40" operator="equal">
       <formula>"Peugeot 9X8 LMH"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="41" operator="equal">
       <formula>"Porsche 963"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="42" operator="equal">
       <formula>"Toyota GR010 Hybrid"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="43" operator="equal">
       <formula>"Dallara P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="45" operator="equal">
       <formula>"Oreca 07"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="46" operator="equal">
       <formula>"Riley-Multimatic Mk. 30"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="47" operator="equal">
       <formula>"Aston Martin Vantage AMR GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="48" operator="equal">
       <formula>"BMW M8 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="49" operator="equal">
       <formula>"Corvette C8.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="50" operator="equal">
       <formula>"Ferrari 296 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="51" operator="equal">
       <formula>"Ford GT GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="52" operator="equal">
       <formula>"Glickenhaus SCG 004 GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="61" operator="equal">
       <formula>"Ferrari 296 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="57" operator="equal">
       <formula>"Acura NSX GT3 Evo22"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="53" operator="equal">
       <formula>"Lexus LFA GTE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="62" operator="equal">
       <formula>"Ford Mustang GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
       <formula>"Glickenhaus SCG 004 GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="60" operator="equal">
       <formula>"Corvette Z06 GT3.R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="64" operator="equal">
-      <formula>"Lamborghini Huracán GT3 Evo 2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="64" operator="equal">
+      <formula>"Lamborghini Huracan GT3 Evo 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="65" operator="equal">
       <formula>"Lexus RC F GT3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="66" operator="equal">
       <formula>"McLaren 720S GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="67" operator="equal">
       <formula>"Mercedes-AMG GT3 Evo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="44" operator="equal">
       <formula>"Ligier JS P217"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="69" operator="equal">
       <formula>"Porsche 911 GT3 R"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14426,7 +17646,7 @@
   <dimension ref="B1:AA34"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15982,7 +19202,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="187" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G28" s="162">
         <f t="shared" si="0"/>
